--- a/scripts/Edouard/Regression_results/Regression_results_termes_echange_trend.xlsx
+++ b/scripts/Edouard/Regression_results/Regression_results_termes_echange_trend.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,10 +20,10 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War_non_ter</t>
+    <t xml:space="preserve">War_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War_duree</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -38,19 +38,16 @@
     <t xml:space="preserve">trend_Marseille_</t>
   </si>
   <si>
-    <t xml:space="preserve">-7.2209 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0042 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.8556)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0200)</t>
+    <t xml:space="preserve">0.0505 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0146)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0843)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0170)</t>
   </si>
   <si>
     <t xml:space="preserve">      </t>
@@ -59,99 +56,98 @@
     <t xml:space="preserve">trend_Bordeaux_</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3405 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0113 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2091 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.4302)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0786)</t>
+    <t xml:space="preserve">0.5011 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0485)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2178)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0508)</t>
   </si>
   <si>
     <t xml:space="preserve">trend_La Rochelle_</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8925 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0095 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1559 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.7630)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0453)</t>
+    <t xml:space="preserve">0.1868 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0352)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1715)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0466)</t>
   </si>
   <si>
     <t xml:space="preserve">trend_Nantes_</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6317 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0085 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.5567)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0665)</t>
+    <t xml:space="preserve">-0.2127 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4592 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0830 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0385)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1611)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0351)</t>
   </si>
   <si>
     <t xml:space="preserve">trend_Bayonne_</t>
   </si>
   <si>
-    <t xml:space="preserve">-7.2830 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0040 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.2172)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0331)</t>
+    <t xml:space="preserve">-0.2145 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1442 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0391 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0174)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0543)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0123)</t>
   </si>
   <si>
     <t xml:space="preserve">trend_Rennes_</t>
   </si>
   <si>
-    <t xml:space="preserve">(3.6686)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0543)</t>
+    <t xml:space="preserve">0.2413 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0295)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0901)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0204)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -294,13 +290,13 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -625,31 +621,31 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>0</v>
@@ -663,78 +659,78 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>-4.2115</v>
+      <c r="L2" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
+      <c r="B3" s="7" t="n">
+        <v>-0.0525</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>-0.2511</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>23</v>
+      <c r="F3" s="7" t="n">
+        <v>-0.113</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="L3" s="7" t="n">
-        <v>0.0025</v>
+        <v>0.181</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -742,40 +738,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>-0.0247</v>
+        <v>0.0128</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>-0.0129</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>24</v>
+      <c r="F4" s="8" t="n">
+        <v>-0.0449</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>0.1031</v>
+        <v>22</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>-0.0046</v>
+        <v>29</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0.0171</v>
+        <v>-0.0151</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -786,37 +782,37 @@
         <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="n">
         <v>54</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="9" t="n">
         <v>56</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="9" t="n">
         <v>36</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="9" t="n">
         <v>29</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="9" t="n">
         <v>28</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -824,40 +820,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.6227</v>
+        <v>0.0127</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.4871</v>
+        <v>0.0989</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>0.7196</v>
+        <v>0.1186</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>0.3556</v>
+        <v>0.1975</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="10" t="n">
-        <v>0.1565</v>
+        <v>0.2809</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="10" t="n">
-        <v>0.0599</v>
+        <v>0.1921</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
